--- a/source-xlsx/16-04-2020.xlsx
+++ b/source-xlsx/16-04-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\covid19\source-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1CBE8A-395A-4F6E-AE4D-BF0C193A5F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A189802C-5F81-4C3D-8B50-D78398860D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="154">
   <si>
     <t>division</t>
   </si>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="H147" sqref="H147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -885,7 +885,9 @@
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -895,7 +897,9 @@
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
@@ -905,7 +909,9 @@
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -915,7 +921,9 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -925,7 +933,9 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
@@ -935,7 +945,9 @@
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
@@ -945,7 +957,9 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
+      <c r="A9" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
@@ -955,7 +969,9 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
+      <c r="A10" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -965,7 +981,9 @@
       <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
+      <c r="A11" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>13</v>
       </c>
@@ -975,7 +993,9 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
+      <c r="A12" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -985,7 +1005,9 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>15</v>
       </c>
@@ -995,7 +1017,9 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>16</v>
       </c>
@@ -1005,7 +1029,9 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4" t="s">
+        <v>48</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
       </c>
@@ -1027,7 +1053,9 @@
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5"/>
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>19</v>
       </c>
@@ -1037,7 +1065,9 @@
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="5"/>
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
@@ -1047,7 +1077,9 @@
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="5"/>
+      <c r="A19" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
       </c>
@@ -1057,7 +1089,9 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="5"/>
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1067,7 +1101,9 @@
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="5"/>
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>23</v>
       </c>
@@ -1077,7 +1113,9 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="5"/>
+      <c r="A22" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>24</v>
       </c>
@@ -1099,7 +1137,9 @@
       <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="5"/>
+      <c r="A24" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
@@ -1109,7 +1149,9 @@
       <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="5"/>
+      <c r="A25" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>27</v>
       </c>
@@ -1119,7 +1161,9 @@
       <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="5"/>
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
@@ -1141,7 +1185,9 @@
       <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="5"/>
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
@@ -1151,7 +1197,9 @@
       <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="5"/>
+      <c r="A29" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>31</v>
       </c>
@@ -1161,7 +1209,9 @@
       <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="5"/>
+      <c r="A30" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>32</v>
       </c>
@@ -1171,7 +1221,9 @@
       <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="5"/>
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B31" s="2" t="s">
         <v>33</v>
       </c>
@@ -1181,7 +1233,9 @@
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="5"/>
+      <c r="A32" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>34</v>
       </c>
@@ -1191,7 +1245,9 @@
       <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="5"/>
+      <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="B33" s="2" t="s">
         <v>35</v>
       </c>
@@ -1213,7 +1269,9 @@
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="5"/>
+      <c r="A35" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>37</v>
       </c>
@@ -1223,7 +1281,9 @@
       <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="5"/>
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>38</v>
       </c>
@@ -1245,7 +1305,9 @@
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="5"/>
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>40</v>
       </c>
@@ -1255,7 +1317,9 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="5"/>
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B39" s="2" t="s">
         <v>41</v>
       </c>
@@ -1265,7 +1329,9 @@
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="5"/>
+      <c r="A40" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B40" s="2" t="s">
         <v>15</v>
       </c>
@@ -1287,7 +1353,9 @@
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="5"/>
+      <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B42" s="2" t="s">
         <v>43</v>
       </c>
@@ -1297,7 +1365,9 @@
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="5"/>
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B43" s="2" t="s">
         <v>44</v>
       </c>
@@ -1307,7 +1377,9 @@
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="5"/>
+      <c r="A44" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B44" s="2" t="s">
         <v>45</v>
       </c>
@@ -1317,7 +1389,9 @@
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="5"/>
+      <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="B45" s="2" t="s">
         <v>46</v>
       </c>

--- a/source-xlsx/16-04-2020.xlsx
+++ b/source-xlsx/16-04-2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp64\www\covid19\source-xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A189802C-5F81-4C3D-8B50-D78398860D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E469B7-CAA5-46FA-80D0-3C074068651F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="156">
   <si>
     <t>division</t>
   </si>
@@ -495,6 +495,12 @@
   </si>
   <si>
     <t>Dhaka City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhaka City </t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -547,9 +553,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -845,2120 +850,2085 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="H147" sqref="H147"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152:XFD585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>28</v>
       </c>
-      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>82</v>
       </c>
-      <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>22</v>
       </c>
-      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>23</v>
       </c>
-      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>255</v>
       </c>
-      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>26</v>
       </c>
-      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>43</v>
       </c>
-      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>7</v>
       </c>
-      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>9</v>
       </c>
-      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>2</v>
       </c>
-      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>6</v>
       </c>
-      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>17</v>
       </c>
-      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>36</v>
       </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>14</v>
       </c>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>8</v>
       </c>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>2</v>
       </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>7</v>
       </c>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>3</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>3</v>
       </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>13</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>6</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>2</v>
       </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>8</v>
       </c>
-      <c r="D32" s="4"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>3</v>
       </c>
-      <c r="D33" s="4"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="4"/>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="4"/>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="4"/>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>9</v>
       </c>
-      <c r="D37" s="4"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>12</v>
       </c>
-      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>6</v>
       </c>
-      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>3</v>
       </c>
-      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>4</v>
       </c>
-      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>12</v>
       </c>
-      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>2</v>
       </c>
-      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="1">
         <v>4</v>
       </c>
-      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="1">
         <v>3</v>
       </c>
-      <c r="D45" s="4"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="1">
         <v>4</v>
       </c>
-      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C47" s="2">
+      <c r="A47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="1">
         <v>5</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C48" s="2">
+      <c r="A48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="1">
         <v>2</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2" t="s">
+      <c r="A49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="A50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C51" s="2">
+      <c r="A51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" s="1">
         <v>11</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="2">
+      <c r="A52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="1">
         <v>11</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="2">
+      <c r="A53" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="1">
         <v>8</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C54" s="2">
+      <c r="A54" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="1">
         <v>3</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C55" s="2">
+      <c r="A55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="1">
         <v>8</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C56" s="2">
+      <c r="A56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="1">
         <v>9</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="A57" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C58" s="2">
+      <c r="A58" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="1">
         <v>17</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C59" s="2">
+      <c r="A59" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59" s="1">
         <v>5</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
-      <c r="D60" s="2" t="s">
+      <c r="A60" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2" t="s">
+      <c r="A61" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" s="1">
+        <v>1</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="A62" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="A63" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="A64" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="1">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
-      <c r="D65" s="2" t="s">
+      <c r="A65" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1</v>
+      </c>
+      <c r="D65" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C66" s="2">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="A66" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C67" s="2">
+      <c r="A67" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="1">
         <v>5</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C68" s="2">
+      <c r="A68" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="1">
         <v>9</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="A69" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C69" s="1">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70" s="2">
+      <c r="A70" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="1">
         <v>18</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="A71" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="1">
+        <v>1</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="A72" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C73" s="2">
+      <c r="A73" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C73" s="1">
         <v>2</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C74" s="2">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2" t="s">
+      <c r="A74" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="1">
+        <v>1</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C75" s="2">
-        <v>1</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="A75" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" s="2">
+      <c r="A76" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="1">
         <v>14</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C77" s="2">
+      <c r="A77" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="1">
         <v>3</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C78" s="2">
+      <c r="A78" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C78" s="1">
         <v>10</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C79" s="2">
+      <c r="A79" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="1">
         <v>2</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C80" s="2">
+      <c r="A80" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="1">
         <v>13</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C81" s="2">
-        <v>1</v>
-      </c>
-      <c r="D81" s="2" t="s">
+      <c r="A81" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="1">
+        <v>1</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="2">
+      <c r="A82" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C82" s="1">
         <v>3</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C83" s="2">
+      <c r="A83" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="1">
         <v>11</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C84" s="2">
+      <c r="A84" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="1">
         <v>2</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C85" s="2">
+      <c r="A85" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="1">
         <v>2</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" s="2">
+      <c r="A86" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" s="1">
         <v>23</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C87" s="2">
+      <c r="A87" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" s="1">
         <v>5</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C88" s="2">
-        <v>1</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="A88" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C89" s="2">
-        <v>1</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="A89" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="1">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C90" s="2">
+      <c r="A90" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="1">
         <v>3</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="1" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C91" s="2">
+      <c r="A91" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" s="1">
         <v>2</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C92" s="2">
-        <v>1</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="A92" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C92" s="1">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C93" s="2">
-        <v>1</v>
-      </c>
-      <c r="D93" s="2" t="s">
+      <c r="A93" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" s="1">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C94" s="2">
-        <v>1</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="A94" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B95" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C95" s="2">
-        <v>1</v>
-      </c>
-      <c r="D95" s="2" t="s">
+      <c r="A95" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" s="1">
+        <v>1</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C96" s="2">
+      <c r="A96" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" s="1">
         <v>3</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="1" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C97" s="2">
-        <v>1</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="A97" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" s="1">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C98" s="2">
+      <c r="A98" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C98" s="1">
         <v>21</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C99" s="2">
+      <c r="A99" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="1">
         <v>4</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C100" s="2">
+      <c r="A100" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" s="1">
         <v>4</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C101" s="2">
-        <v>1</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="A101" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C102" s="2">
-        <v>1</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="A102" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C102" s="1">
+        <v>1</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C103" s="2">
+      <c r="A103" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" s="1">
         <v>2</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C104" s="2">
+      <c r="A104" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C104" s="1">
         <v>8</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="1" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C105" s="2">
+      <c r="A105" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" s="1">
         <v>3</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C106" s="2">
+      <c r="A106" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C106" s="1">
         <v>6</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C107" s="2">
+      <c r="A107" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" s="1">
         <v>11</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C108" s="2">
+      <c r="A108" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C108" s="1">
         <v>10</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C109" s="2">
+      <c r="A109" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="1">
         <v>2</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C110" s="2">
+      <c r="A110" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C110" s="1">
         <v>5</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C111" s="2">
+      <c r="A111" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C111" s="1">
         <v>2</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C112" s="2">
+      <c r="A112" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C112" s="1">
         <v>10</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C113" s="2">
+      <c r="A113" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C113" s="1">
         <v>12</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C114" s="2">
+      <c r="A114" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" s="1">
         <v>22</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="1" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C115" s="2">
-        <v>1</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="A115" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="1">
+        <v>1</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C116" s="2">
+      <c r="A116" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" s="1">
         <v>2</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C117" s="2">
-        <v>1</v>
-      </c>
-      <c r="D117" s="2" t="s">
+      <c r="A117" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C117" s="1">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C118" s="2">
+      <c r="A118" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C118" s="1">
         <v>3</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C119" s="2">
+      <c r="A119" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C119" s="1">
         <v>5</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="120" spans="1:4">
-      <c r="A120" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C120" s="2">
-        <v>1</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="A120" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="1">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="121" spans="1:4">
-      <c r="A121" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C121" s="2">
+      <c r="A121" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C121" s="1">
         <v>2</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C122" s="2">
+      <c r="A122" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C122" s="1">
         <v>2</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:4">
-      <c r="A123" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C123" s="2">
+      <c r="A123" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C123" s="1">
         <v>8</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C124" s="2">
+      <c r="A124" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" s="1">
         <v>3</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="1" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C125" s="2">
-        <v>1</v>
-      </c>
-      <c r="D125" s="2" t="s">
+      <c r="A125" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="1">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C126" s="2">
-        <v>1</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="A126" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C126" s="1">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C127" s="2">
-        <v>1</v>
-      </c>
-      <c r="D127" s="2" t="s">
+      <c r="A127" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" s="1">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C128" s="2">
+      <c r="A128" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C128" s="1">
         <v>2</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="1" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C129" s="2">
-        <v>1</v>
-      </c>
-      <c r="D129" s="2" t="s">
+      <c r="A129" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" s="1">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C130" s="2">
-        <v>1</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="A130" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C131" s="2">
+      <c r="A131" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C131" s="1">
         <v>2</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C132" s="2">
+      <c r="A132" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="1">
         <v>4</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C133" s="2">
+      <c r="A133" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C133" s="1">
         <v>6</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C134" s="2">
-        <v>1</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="A134" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C134" s="1">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C135" s="2">
-        <v>1</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="A135" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C136" s="2">
+      <c r="A136" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C136" s="1">
         <v>7</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C137" s="2">
+      <c r="A137" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C137" s="1">
         <v>3</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C138" s="2">
-        <v>1</v>
-      </c>
-      <c r="D138" s="2" t="s">
+      <c r="A138" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C138" s="1">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C139" s="2">
-        <v>1</v>
-      </c>
-      <c r="D139" s="2" t="s">
+      <c r="A139" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C139" s="1">
+        <v>1</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C140" s="2">
+      <c r="A140" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C140" s="1">
         <v>3</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C141" s="2">
+      <c r="A141" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C141" s="1">
         <v>3</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C142" s="2">
-        <v>1</v>
-      </c>
-      <c r="D142" s="2" t="s">
+      <c r="A142" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C143" s="2">
+      <c r="A143" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C143" s="1">
         <v>7</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C144" s="2">
+      <c r="A144" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C144" s="1">
         <v>16</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C145" s="2">
-        <v>1</v>
-      </c>
-      <c r="D145" s="2" t="s">
+      <c r="A145" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C146" s="2">
+      <c r="A146" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C146" s="1">
         <v>19</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C147" s="2">
-        <v>1</v>
-      </c>
-      <c r="D147" s="2" t="s">
+      <c r="A147" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C148" s="2">
+      <c r="A148" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" s="1">
         <v>20</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="1" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C149" s="2">
-        <v>1</v>
-      </c>
-      <c r="D149" s="2" t="s">
+      <c r="A149" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" s="1">
+        <v>1</v>
+      </c>
+      <c r="D149" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="C150" s="2">
+      <c r="A150" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C150" s="1">
         <v>27</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="C151" s="3"/>
-      <c r="D151" s="2"/>
+      <c r="A151" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C151" s="1">
+        <v>608</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
     </row>
     <row r="153" spans="1:4">
-      <c r="C153" s="2"/>
-      <c r="D153" s="2"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
     </row>
     <row r="154" spans="1:4">
-      <c r="C154" s="2"/>
-      <c r="D154" s="2"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
     </row>
     <row r="155" spans="1:4">
-      <c r="C155" s="2"/>
-      <c r="D155" s="2"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
     </row>
     <row r="156" spans="1:4">
-      <c r="C156" s="2"/>
-      <c r="D156" s="2"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="C157" s="2"/>
-      <c r="D157" s="2"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
     </row>
     <row r="158" spans="1:4">
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
     </row>
     <row r="159" spans="1:4">
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
     </row>
     <row r="160" spans="1:4">
-      <c r="C160" s="2"/>
-      <c r="D160" s="2"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
     </row>
     <row r="161" spans="3:4">
-      <c r="C161" s="2"/>
-      <c r="D161" s="2"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
     </row>
     <row r="162" spans="3:4">
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
     </row>
     <row r="163" spans="3:4">
-      <c r="C163" s="2"/>
-      <c r="D163" s="2"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
     </row>
     <row r="164" spans="3:4">
-      <c r="C164" s="2"/>
-      <c r="D164" s="2"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
     </row>
     <row r="165" spans="3:4">
-      <c r="C165" s="2"/>
-      <c r="D165" s="2"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
     </row>
     <row r="166" spans="3:4">
-      <c r="C166" s="2"/>
-      <c r="D166" s="2"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
     </row>
     <row r="167" spans="3:4">
-      <c r="C167" s="2"/>
-      <c r="D167" s="2"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
     </row>
     <row r="168" spans="3:4">
-      <c r="C168" s="2"/>
-      <c r="D168" s="2"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
     </row>
     <row r="169" spans="3:4">
-      <c r="C169" s="2"/>
-      <c r="D169" s="2"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
     </row>
     <row r="170" spans="3:4">
-      <c r="C170" s="2"/>
-      <c r="D170" s="2"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
     </row>
     <row r="171" spans="3:4">
-      <c r="C171" s="2"/>
-      <c r="D171" s="2"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
     </row>
     <row r="172" spans="3:4">
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
     </row>
     <row r="173" spans="3:4">
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
